--- a/biology/Botanique/Xanthosoma_caracu/Xanthosoma_caracu.xlsx
+++ b/biology/Botanique/Xanthosoma_caracu/Xanthosoma_caracu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthosoma caracu est une espèce de plantes monocotylédones de la famille des Araceae, sous-famille des Aroideae, originaire des Antilles. 
-Ce sont des plantes herbacées vivaces qui peuvent atteindre de 1,5 à 2 mètres de haut, aux feuilles brillantes, vert bleuâtre à la face supérieure, vert clair à la face inférieure. Les cormes (ou tubercules) sont abondants et gros, en forme de masse, étroits à l'extrémité attachée à la tige et larges à l'autre extrémité[2].
-Les cormes et les feuilles sont comestibles et sont cultivés pour l'alimentation à Porto Rico, au Mexique, dans les Caraïbes et dans le nord de l'Amérique du Sud[3],[4].
-Cette espèce n'est connue qu'à l'état cultivé[5]. 
+Ce sont des plantes herbacées vivaces qui peuvent atteindre de 1,5 à 2 mètres de haut, aux feuilles brillantes, vert bleuâtre à la face supérieure, vert clair à la face inférieure. Les cormes (ou tubercules) sont abondants et gros, en forme de masse, étroits à l'extrémité attachée à la tige et larges à l'autre extrémité.
+Les cormes et les feuilles sont comestibles et sont cultivés pour l'alimentation à Porto Rico, au Mexique, dans les Caraïbes et dans le nord de l'Amérique du Sud,.
+Cette espèce n'est connue qu'à l'état cultivé. 
 </t>
         </is>
       </c>
